--- a/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data analyzed" sheetId="4" r:id="rId1"/>
@@ -1326,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154196512"/>
-        <c:axId val="154197072"/>
+        <c:axId val="366796192"/>
+        <c:axId val="364780656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154196512"/>
+        <c:axId val="366796192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154197072"/>
+        <c:crossAx val="364780656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154197072"/>
+        <c:axId val="364780656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154196512"/>
+        <c:crossAx val="366796192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3584,11 +3584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154203792"/>
-        <c:axId val="151445920"/>
+        <c:axId val="363523824"/>
+        <c:axId val="363522704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154203792"/>
+        <c:axId val="363523824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151445920"/>
+        <c:crossAx val="363522704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151445920"/>
+        <c:axId val="363522704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154203792"/>
+        <c:crossAx val="363523824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5847,11 +5847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154826768"/>
-        <c:axId val="154827328"/>
+        <c:axId val="345068752"/>
+        <c:axId val="345069312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154826768"/>
+        <c:axId val="345068752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,12 +5964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154827328"/>
+        <c:crossAx val="345069312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154827328"/>
+        <c:axId val="345069312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154826768"/>
+        <c:crossAx val="345068752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7819,7 +7819,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7895,7 +7895,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8183,9 +8183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10671,7 +10671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>

--- a/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
@@ -1326,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366796192"/>
-        <c:axId val="364780656"/>
+        <c:axId val="44911840"/>
+        <c:axId val="128041728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366796192"/>
+        <c:axId val="44911840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364780656"/>
+        <c:crossAx val="128041728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364780656"/>
+        <c:axId val="128041728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366796192"/>
+        <c:crossAx val="44911840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,7 +1677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Load Torque and Motor Speed behaviour at constant current</a:t>
+              <a:t>Load Torque vs Motor Speed at constant values of Supply Current</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3584,11 +3584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363523824"/>
-        <c:axId val="363522704"/>
+        <c:axId val="128048448"/>
+        <c:axId val="128049008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363523824"/>
+        <c:axId val="128048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363522704"/>
+        <c:crossAx val="128049008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363522704"/>
+        <c:axId val="128049008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,7 +3747,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Load Torque (ft-lb)</a:t>
+                  <a:t>Load Torque (lb-ft)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3819,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363523824"/>
+        <c:crossAx val="128048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5847,11 +5847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345068752"/>
-        <c:axId val="345069312"/>
+        <c:axId val="128055728"/>
+        <c:axId val="128056288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345068752"/>
+        <c:axId val="128055728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,12 +5964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345069312"/>
+        <c:crossAx val="128056288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345069312"/>
+        <c:axId val="128056288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345068752"/>
+        <c:crossAx val="128055728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7819,7 +7819,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7895,7 +7895,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8185,7 +8185,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Raw data analyzed" sheetId="4" r:id="rId1"/>
     <sheet name="Raw data collected" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1326,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44911840"/>
-        <c:axId val="128041728"/>
+        <c:axId val="206334320"/>
+        <c:axId val="206333760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44911840"/>
+        <c:axId val="206334320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128041728"/>
+        <c:crossAx val="206333760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128041728"/>
+        <c:axId val="206333760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44911840"/>
+        <c:crossAx val="206334320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3584,11 +3584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128048448"/>
-        <c:axId val="128049008"/>
+        <c:axId val="211754160"/>
+        <c:axId val="211753600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128048448"/>
+        <c:axId val="211754160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128049008"/>
+        <c:crossAx val="211753600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128049008"/>
+        <c:axId val="211753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128048448"/>
+        <c:crossAx val="211754160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5847,11 +5847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128055728"/>
-        <c:axId val="128056288"/>
+        <c:axId val="214367872"/>
+        <c:axId val="214368432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128055728"/>
+        <c:axId val="214367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,12 +5964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128056288"/>
+        <c:crossAx val="214368432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128056288"/>
+        <c:axId val="214368432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128055728"/>
+        <c:crossAx val="214367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7819,7 +7819,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7895,7 +7895,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8183,9 +8183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10672,7 +10672,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>

--- a/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
+++ b/4-5-2017/Experimental Setup_Constant_Current_4-5-2017.xlsx
@@ -1326,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206334320"/>
-        <c:axId val="206333760"/>
+        <c:axId val="149044848"/>
+        <c:axId val="149045408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206334320"/>
+        <c:axId val="149044848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206333760"/>
+        <c:crossAx val="149045408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206333760"/>
+        <c:axId val="149045408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206334320"/>
+        <c:crossAx val="149044848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,7 +1677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Load Torque vs Motor Speed at constant values of Supply Current</a:t>
+              <a:t>Load Torque vs Motor Speed at constant values of Supply Current at 91.5V</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3584,11 +3584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211754160"/>
-        <c:axId val="211753600"/>
+        <c:axId val="163454672"/>
+        <c:axId val="163455232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211754160"/>
+        <c:axId val="163454672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211753600"/>
+        <c:crossAx val="163455232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211753600"/>
+        <c:axId val="163455232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211754160"/>
+        <c:crossAx val="163454672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5847,11 +5847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214367872"/>
-        <c:axId val="214368432"/>
+        <c:axId val="163461952"/>
+        <c:axId val="163462512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214367872"/>
+        <c:axId val="163461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,12 +5964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214368432"/>
+        <c:crossAx val="163462512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214368432"/>
+        <c:axId val="163462512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214367872"/>
+        <c:crossAx val="163461952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7819,7 +7819,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7857,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7895,7 +7895,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C09AB4-C840-42C5-A72D-C1EEE0C3A78E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8183,9 +8183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E82"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10672,7 +10672,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
